--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3335711.002158937</v>
+        <v>3333458.922447729</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>85.26459287122408</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>62.13489945235168</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666681</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>183.746046626437</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8788194415668</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>407.0181781096226</v>
+        <v>170.7304930065913</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.53923626892142</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695332</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.6857048437754</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>258.5202580022754</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>175.0948681033051</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>54.45740180395846</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.82891891787533</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695608</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>104.3471808964298</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>117.2645540643931</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>167.1567583758961</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>133.1599107083205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>167.5280026112699</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2811815126420993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3239.479970224096</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3033.502222608318</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3033.502222608318</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2702.439335264748</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2349.670679994633</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>941.4970410294717</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1709.30366716767</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1420.200800293314</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1165.516312087427</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1165.516312087427</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1165.516312087427</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.7237329438971</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.6439622052</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.681445264788</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.415746658038</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6274940597937</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F8" t="n">
-        <v>477.6415892701861</v>
+        <v>578.5476590249488</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269322</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269322</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4893,40 +4893,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1586012949293</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>240.2224183670224</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>240.2224183670224</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>92.3093247846293</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +4999,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5030,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468469</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373398</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928005</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167291</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.270770777031</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>803.270770777031</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648818</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750801</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072707</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,13 +5297,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273895</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239594</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397178</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.569791909146</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.022157454266</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,7 +5823,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273903</v>
@@ -5835,19 +5835,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831846</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7618030552777</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>605.645163642942</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>457.7320700605488</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6060,7 +6060,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6081,10 +6081,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.843151638089</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101821</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978464</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>274.8772357154533</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>127.9872882175429</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>127.9872882175429</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1731.250242493492</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5276345711973</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.176099401437</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309957</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>943.5102657467545</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373306</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2078.61350097808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.4712640439268</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160199</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.901858915714</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.912308017697</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.1197288741665</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1492342949679</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433613</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,37 +7400,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7497,10 +7497,10 @@
         <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.7543264856228</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.18492135741</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.195370459393</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.4027913158625</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.92976817443699</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>28.0027403343156</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>50.61478728573204</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>90.96364621897278</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>106.4657939283485</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8372934928143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.1408962628952</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>119.3662399606949</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>34.08691039030734</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>118.6564717779742</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067268</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778555</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778554</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680591</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992878</v>
+        <v>-788705.1043992877</v>
       </c>
       <c r="C6" t="n">
-        <v>540039.6413283051</v>
+        <v>540039.641328305</v>
       </c>
       <c r="D6" t="n">
-        <v>540039.641328305</v>
+        <v>540039.6413283048</v>
       </c>
       <c r="E6" t="n">
-        <v>288119.9718729377</v>
+        <v>288085.2339475014</v>
       </c>
       <c r="F6" t="n">
-        <v>613532.4336802925</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="G6" t="n">
-        <v>613532.433680292</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="H6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="I6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="J6" t="n">
-        <v>396001.2312830146</v>
+        <v>395966.493357579</v>
       </c>
       <c r="K6" t="n">
-        <v>613532.4336802927</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="L6" t="n">
-        <v>613532.4336802926</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="M6" t="n">
-        <v>528477.4057447804</v>
+        <v>528442.667819345</v>
       </c>
       <c r="N6" t="n">
-        <v>613532.433680292</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="O6" t="n">
-        <v>613532.4336802925</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="P6" t="n">
-        <v>613532.4336802926</v>
+        <v>613497.6957548567</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23.92316891695175</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>163.5747559366855</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068138</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>185.985054052032</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>92.67012983460241</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>3.903547543830825</v>
+        <v>240.1912326468622</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>119.8818117540098</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-8.003898693245978e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>297.7596336167247</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>687.9583686879473</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>499.3768644016569</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>691.6611968462889</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8454457931488</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>265.5442652399242</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>314.5984986256099</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>163.7852262023944</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>545.8243347659289</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>368.0351523183236</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876629</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>560.3194847629557</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>134.202553156591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>180.6240912112796</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
